--- a/Assets/Data/Table/Convert/Character_MoveValues.xlsx
+++ b/Assets/Data/Table/Convert/Character_MoveValues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69914C99-0C63-47A0-9346-04110A0B7EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B790D5A5-C8F5-490B-837D-657664FB36AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CBF330FD-2A0D-4D8B-AFAB-19A4EE76BB80}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{CBF330FD-2A0D-4D8B-AFAB-19A4EE76BB80}"/>
   </bookViews>
   <sheets>
     <sheet name="MoveValues" sheetId="7" r:id="rId1"/>
@@ -118,9 +118,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum.Character.
+    <t>Em.Character.
 MoveType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -538,19 +537,19 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="8.875" style="1"/>
-    <col min="12" max="16384" width="8.875" style="2"/>
+    <col min="4" max="11" width="8.8984375" style="1"/>
+    <col min="12" max="16384" width="8.8984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -585,7 +584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -620,7 +619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -656,7 +655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
